--- a/cypress/Excels/Preferred hospital.xlsx
+++ b/cypress/Excels/Preferred hospital.xlsx
@@ -34,10 +34,10 @@
     <t>Udupi</t>
   </si>
   <si>
-    <t>KMC, Manipal</t>
-  </si>
-  <si>
-    <t>umesh</t>
+    <t>sandesh</t>
+  </si>
+  <si>
+    <t>adarsha</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,13 +412,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/Excels/Preferred hospital.xlsx
+++ b/cypress/Excels/Preferred hospital.xlsx
@@ -34,10 +34,10 @@
     <t>Udupi</t>
   </si>
   <si>
-    <t>sandesh</t>
-  </si>
-  <si>
     <t>adarsha</t>
+  </si>
+  <si>
+    <t>Ravi</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,13 +412,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/Excels/Preferred hospital.xlsx
+++ b/cypress/Excels/Preferred hospital.xlsx
@@ -37,7 +37,7 @@
     <t>adarsha</t>
   </si>
   <si>
-    <t>Ravi</t>
+    <t>sandesh</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cypress/Excels/Preferred hospital.xlsx
+++ b/cypress/Excels/Preferred hospital.xlsx
@@ -22,9 +22,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>karthik.s@pococare.com</t>
-  </si>
-  <si>
     <t>Cityname</t>
   </si>
   <si>
@@ -37,17 +34,28 @@
     <t>adarsha</t>
   </si>
   <si>
-    <t>sandesh</t>
+    <t>playstoretest@pococare.com</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,13 +78,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -382,7 +393,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,28 +412,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/cypress/Excels/Preferred hospital.xlsx
+++ b/cypress/Excels/Preferred hospital.xlsx
@@ -31,13 +31,13 @@
     <t>Udupi</t>
   </si>
   <si>
-    <t>adarsha</t>
-  </si>
-  <si>
     <t>playstoretest@pococare.com</t>
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>Adarsha</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,16 +420,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
